--- a/Notebooks/13_Words_igitur.xlsx
+++ b/Notebooks/13_Words_igitur.xlsx
@@ -80,13 +80,13 @@
     <t>u</t>
   </si>
   <si>
-    <t>ig-tur or ig-tu-</t>
-  </si>
-  <si>
-    <t>iptu- counting other bad assumptions of pipeline 2</t>
-  </si>
-  <si>
     <t>pipeline 3 recognizes the "r" but has too many fake positives to list all the possible words</t>
+  </si>
+  <si>
+    <t>igitur</t>
+  </si>
+  <si>
+    <t>ig-tur, ig-tu- or iptu- counting other bad assumptions of pipeline 2</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L14">
         <v>18</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L15">
         <v>19</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L16">
         <v>20</v>
